--- a/backend/media/ai_staging/612b4e77-0d70-4399-a1ab-e464fcee4083/recursive-string-permutations-4e0e4dff/reports/Summary_unknown_assignment.xlsx
+++ b/backend/media/ai_staging/612b4e77-0d70-4399-a1ab-e464fcee4083/recursive-string-permutations-4e0e4dff/reports/Summary_unknown_assignment.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>The student's solution is well-structured, with clear variable names and a logical backtrack approach. However, the time complexity appears to be O(n!), which is impractically high due to the use of permutations without pruning. This complexity is likely reasonable for typical constraints but may not scale well for large inputs.</t>
+          <t>The provided Python solution demonstrates a clear and concise approach to solving the permutation problem using backtracking. The code structure is well-organized, making it easy to follow. However, the time complexity appears to be O(n!), which is expected for this problem as it involves generating all permutations of a string.</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
